--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_JERSEY_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NEW_JERSEY_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1443"/>
+  <dimension ref="A1:D1437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C23">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C26">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C31">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1057,14 +1057,14 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C52">
         <v>18</v>
       </c>
       <c r="D52">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="53">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C56">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C63">
@@ -1730,7 +1730,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C103">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C112">
@@ -1878,7 +1878,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C118">
@@ -2200,12 +2200,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C138">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C141">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C143">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C149">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C154">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C158">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C163">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C170">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C179">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C187">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C189">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C199">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C208">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C216">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C227">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C233">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C240">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C246">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C248">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C253">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C261">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C269">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C279">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C284">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C296">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C299">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,14 +4490,14 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C313">
         <v>18</v>
       </c>
       <c r="D313">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C317">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C322">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C334">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C338">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C342">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C345">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C348">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C351">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C360">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C362">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C369">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C371">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C372">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C374">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C384">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C387">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C393">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C395">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C403">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C407">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C414">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C420">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C423">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C430">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C449">
@@ -7071,7 +7071,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C510">
@@ -7175,7 +7175,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C518">
@@ -7227,7 +7227,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C522">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C528">
@@ -7331,7 +7331,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C530">
@@ -7435,7 +7435,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C538">
@@ -7479,7 +7479,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C541">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C556">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C561">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C564">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C567">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C570">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C573">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C587">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C590">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C601">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C605">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C607">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C611">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C614">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C616">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C632">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C634">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C638">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C647">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C651">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C672">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C681">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C692">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C749">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C751">
@@ -10265,7 +10265,7 @@
         <v>18</v>
       </c>
       <c r="D754">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="755">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C772">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C777">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C796">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C821">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C825">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C830">
@@ -11747,7 +11747,7 @@
         <v>192</v>
       </c>
       <c r="D868">
-        <v>0.009800418559542647</v>
+        <v>0.009800418559542648</v>
       </c>
     </row>
     <row r="869">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C899">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C918">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C919">
@@ -12416,7 +12416,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C920">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C921">
@@ -12442,7 +12442,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C922">
@@ -12468,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C924">
@@ -12481,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C925">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C926">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C927">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C929">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C931">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C932">
@@ -12598,7 +12598,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C934">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C935">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C938">
@@ -12980,7 +12980,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C963">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C968">
@@ -13175,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C978">
@@ -13318,7 +13318,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C989">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C992">
@@ -13370,7 +13370,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C993">
@@ -13578,20 +13578,20 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1009">
         <v>18</v>
       </c>
       <c r="D1009">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1010">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1015">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1017">
@@ -13721,7 +13721,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1020">
@@ -13838,7 +13838,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1029">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1030">
@@ -14007,7 +14007,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1042">
@@ -14137,7 +14137,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1052">
@@ -14332,7 +14332,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1067">
@@ -14384,7 +14384,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1071">
@@ -14397,7 +14397,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1072">
@@ -14488,7 +14488,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1079">
@@ -14592,7 +14592,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1087">
@@ -14605,7 +14605,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1088">
@@ -14618,7 +14618,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1089">
@@ -14696,7 +14696,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1095">
@@ -14722,7 +14722,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1097">
@@ -14735,7 +14735,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1098">
@@ -14748,7 +14748,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1099">
@@ -14813,7 +14813,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1104">
@@ -14969,7 +14969,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1116">
@@ -15034,7 +15034,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1121">
@@ -15112,7 +15112,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1127">
@@ -15158,7 +15158,7 @@
         <v>18</v>
       </c>
       <c r="D1130">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="1131">
@@ -15216,7 +15216,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1135">
@@ -15312,7 +15312,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1142">
@@ -15364,7 +15364,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1146">
@@ -15377,7 +15377,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1147">
@@ -15403,7 +15403,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1149">
@@ -15429,7 +15429,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1151">
@@ -15543,7 +15543,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1159">
@@ -15556,7 +15556,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1160">
@@ -15764,7 +15764,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1176">
@@ -15790,7 +15790,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1178">
@@ -16395,7 +16395,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1223">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1229">
@@ -16569,7 +16569,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1236">
@@ -16654,13 +16654,13 @@
         <v>18</v>
       </c>
       <c r="D1242">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1243">
@@ -16699,7 +16699,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1246">
@@ -16712,7 +16712,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1247">
@@ -16751,7 +16751,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1250">
@@ -16790,7 +16790,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1253">
@@ -16803,7 +16803,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1254">
@@ -16881,7 +16881,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1260">
@@ -16901,7 +16901,7 @@
         <v>18</v>
       </c>
       <c r="D1261">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="1262">
@@ -16920,7 +16920,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1263">
@@ -17076,7 +17076,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1275">
@@ -17159,7 +17159,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1281">
@@ -17179,7 +17179,7 @@
         <v>18</v>
       </c>
       <c r="D1282">
-        <v>0.0009187892399571231</v>
+        <v>0.0009187892399571232</v>
       </c>
     </row>
     <row r="1283">
@@ -17198,7 +17198,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1284">
@@ -17302,7 +17302,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1292">
@@ -17367,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1297">
@@ -17393,7 +17393,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1299">
@@ -17614,7 +17614,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1316">
@@ -17796,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1330">
@@ -17809,7 +17809,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1331">
@@ -17861,7 +17861,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1335">
@@ -17874,7 +17874,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1336">
@@ -17991,7 +17991,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1345">
@@ -18030,7 +18030,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1348">
@@ -18056,7 +18056,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1350">
@@ -18121,7 +18121,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1355">
@@ -18199,7 +18199,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1361">
@@ -18316,7 +18316,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1370">
@@ -18329,7 +18329,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1371">
@@ -18381,7 +18381,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1375">
@@ -18472,7 +18472,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1382">
@@ -18784,7 +18784,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1406">
@@ -18901,7 +18901,7 @@
     <row r="1415">
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1415">
@@ -18914,7 +18914,7 @@
     <row r="1416">
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1416">
@@ -19205,41 +19205,6 @@
       </c>
       <c r="D1437">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
